--- a/prix/plasson.xlsx
+++ b/prix/plasson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779F4F5D-A01D-4CDC-8D58-9F80F183325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B3445A-735A-4558-A34B-0E8A89EE6872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
-  <si>
-    <t>Dénomination</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>43040702</t>
   </si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>acc-tube-polyethylene/plasson/te.png</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +171,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -215,6 +224,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -553,9 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6650E8-1B8F-411F-B025-9B7A832F9320}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -563,7 +573,7 @@
     <col min="2" max="2" width="20.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5546875" style="6"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -574,24 +584,24 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -602,169 +612,200 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="8">
         <v>10.72</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8">
         <v>13.450000000000001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8">
         <v>10.72</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8">
         <v>10.72</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8">
         <v>6.8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8">
         <v>8.2900000000000009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8">
         <v>6.73</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8">
         <v>8.39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6">
         <v>25</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6">
         <v>32</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/plasson.xlsx
+++ b/prix/plasson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B3445A-735A-4558-A34B-0E8A89EE6872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFD77A-6752-4674-BA65-9E5EF8EE2108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>43040702</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -202,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -227,6 +224,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -626,8 +626,8 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
+      <c r="F2" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -646,8 +646,8 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
+      <c r="F3" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -666,8 +666,8 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
+      <c r="F4" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -686,8 +686,8 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>37</v>
+      <c r="F5" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -706,8 +706,8 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>37</v>
+      <c r="F6" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -726,8 +726,8 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
+      <c r="F7" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -746,8 +746,8 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
+      <c r="F8" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -766,8 +766,8 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
+      <c r="F9" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -783,8 +783,8 @@
       <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>37</v>
+      <c r="F10" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -800,8 +800,8 @@
       <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
+      <c r="F11" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/prix/plasson.xlsx
+++ b/prix/plasson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFD77A-6752-4674-BA65-9E5EF8EE2108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190FDE9-B6FF-4BCB-A65F-7661B300519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
   </bookViews>
@@ -565,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6650E8-1B8F-411F-B025-9B7A832F9320}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -621,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="8">
-        <v>10.72</v>
+        <v>11.35</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -641,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="8">
-        <v>13.450000000000001</v>
+        <v>14.21</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
@@ -661,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8">
-        <v>10.72</v>
+        <v>11.35</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>4</v>
@@ -681,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="8">
-        <v>10.72</v>
+        <v>11.35</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
@@ -701,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="8">
-        <v>6.8</v>
+        <v>7.13</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
@@ -721,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="8">
-        <v>8.2900000000000009</v>
+        <v>9.0400000000000009</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -741,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="8">
-        <v>6.73</v>
+        <v>7.34</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -761,7 +763,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="8">
-        <v>8.39</v>
+        <v>9.15</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -780,6 +782,9 @@
       <c r="C10" s="6">
         <v>25</v>
       </c>
+      <c r="D10" s="8">
+        <v>16.64</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
@@ -796,6 +801,9 @@
       </c>
       <c r="C11" s="6">
         <v>32</v>
+      </c>
+      <c r="D11" s="8">
+        <v>21.91</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>34</v>

--- a/prix/plasson.xlsx
+++ b/prix/plasson.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190FDE9-B6FF-4BCB-A65F-7661B300519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8A4801-B8B8-4501-A1D0-88BA96DB242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
